--- a/Fall 2015/Lectures/Lecture 2 Simplex /Resevoir_Solution.xlsx
+++ b/Fall 2015/Lectures/Lecture 2 Simplex /Resevoir_Solution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="11380" yWindow="6440" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="B5:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -573,7 +573,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1">
         <v>40</v>
       </c>
       <c r="J6" s="2">
         <f>SUMPRODUCT(C6:H6,C7:H7)</f>
-        <v>900</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="C7">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -734,13 +734,13 @@
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
       </c>
       <c r="K16">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Fall 2015/Lectures/Lecture 2 Simplex /Resevoir_Solution.xlsx
+++ b/Fall 2015/Lectures/Lecture 2 Simplex /Resevoir_Solution.xlsx
@@ -15,7 +15,7 @@
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$I$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$I$12:$I$16</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$I$13</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$I$14</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$I$15</definedName>
@@ -27,16 +27,16 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$J$6</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$K$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$K$12:$K$16</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$K$13</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$K$14</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$K$15</definedName>
@@ -537,7 +537,7 @@
   <dimension ref="B5:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -570,10 +570,10 @@
     </row>
     <row r="6" spans="2:11">
       <c r="C6" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -582,14 +582,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>SUMPRODUCT(C6:H6,C7:H7)</f>
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="F7">
         <v>9</v>
@@ -644,7 +644,7 @@
       </c>
       <c r="I12">
         <f>SUMPRODUCT(C12:H12,$C$6:$H$6)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>10</v>
@@ -665,7 +665,7 @@
       </c>
       <c r="I13">
         <f t="shared" ref="I13:I16" si="0">SUMPRODUCT(C13:H13,$C$6:$H$6)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>10</v>
@@ -686,7 +686,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>10</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -734,7 +734,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
